--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_BuiManhDung.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_BuiManhDung.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="79">
   <si>
     <t>STT</t>
   </si>
@@ -262,6 +262,12 @@
   </si>
   <si>
     <t>125.212.203.114,16565</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>19/01/2021</t>
   </si>
 </sst>
 </file>
@@ -693,6 +699,30 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -703,31 +733,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1053,8 +1059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1085,42 +1091,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
     </row>
     <row r="2" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="76"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="64"/>
@@ -1163,57 +1169,57 @@
       <c r="V3" s="30"/>
     </row>
     <row r="4" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="75"/>
+      <c r="L4" s="72"/>
       <c r="M4" s="78" t="s">
         <v>43</v>
       </c>
       <c r="N4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="72" t="s">
         <v>62</v>
       </c>
       <c r="S4" s="84" t="s">
         <v>63</v>
       </c>
       <c r="T4" s="29"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="72" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
@@ -1238,7 +1244,7 @@
       <c r="I5" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="62" t="s">
         <v>13</v>
       </c>
@@ -1247,14 +1253,14 @@
       </c>
       <c r="M5" s="79"/>
       <c r="N5" s="79"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
       <c r="S5" s="84"/>
       <c r="T5" s="29"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
     </row>
     <row r="6" spans="1:22" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1263,7 +1269,9 @@
       <c r="B6" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="53"/>
+      <c r="C6" s="53" t="s">
+        <v>78</v>
+      </c>
       <c r="D6" s="54" t="s">
         <v>47</v>
       </c>
@@ -1283,15 +1291,17 @@
       <c r="J6" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="K6" s="59" t="s">
+      <c r="K6" s="59"/>
+      <c r="L6" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="L6" s="56"/>
       <c r="M6" s="56" t="s">
         <v>73</v>
       </c>
       <c r="N6" s="3"/>
-      <c r="O6" s="56"/>
+      <c r="O6" s="56" t="s">
+        <v>77</v>
+      </c>
       <c r="P6" s="56" t="s">
         <v>74</v>
       </c>
@@ -1303,7 +1313,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="61"/>
-      <c r="U6" s="72" t="s">
+      <c r="U6" s="80" t="s">
         <v>19</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1333,7 +1343,7 @@
       <c r="R7" s="54"/>
       <c r="S7" s="4"/>
       <c r="T7" s="61"/>
-      <c r="U7" s="73"/>
+      <c r="U7" s="81"/>
       <c r="V7" s="4" t="s">
         <v>36</v>
       </c>
@@ -1361,7 +1371,7 @@
       <c r="R8" s="54"/>
       <c r="S8" s="4"/>
       <c r="T8" s="61"/>
-      <c r="U8" s="73"/>
+      <c r="U8" s="81"/>
       <c r="V8" s="4" t="s">
         <v>22</v>
       </c>
@@ -1389,7 +1399,7 @@
       <c r="R9" s="54"/>
       <c r="S9" s="4"/>
       <c r="T9" s="61"/>
-      <c r="U9" s="73"/>
+      <c r="U9" s="81"/>
       <c r="V9" s="4" t="s">
         <v>60</v>
       </c>
@@ -1417,7 +1427,7 @@
       <c r="R10" s="54"/>
       <c r="S10" s="4"/>
       <c r="T10" s="61"/>
-      <c r="U10" s="73"/>
+      <c r="U10" s="81"/>
       <c r="V10" s="4" t="s">
         <v>32</v>
       </c>
@@ -1445,7 +1455,7 @@
       <c r="R11" s="54"/>
       <c r="S11" s="4"/>
       <c r="T11" s="61"/>
-      <c r="U11" s="73"/>
+      <c r="U11" s="81"/>
       <c r="V11" s="4" t="s">
         <v>31</v>
       </c>
@@ -1473,7 +1483,7 @@
       <c r="R12" s="54"/>
       <c r="S12" s="4"/>
       <c r="T12" s="61"/>
-      <c r="U12" s="72" t="s">
+      <c r="U12" s="80" t="s">
         <v>20</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1503,7 +1513,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="61"/>
-      <c r="U13" s="73"/>
+      <c r="U13" s="81"/>
       <c r="V13" s="4" t="s">
         <v>38</v>
       </c>
@@ -1531,7 +1541,7 @@
       <c r="R14" s="54"/>
       <c r="S14" s="4"/>
       <c r="T14" s="61"/>
-      <c r="U14" s="73"/>
+      <c r="U14" s="81"/>
       <c r="V14" s="4" t="s">
         <v>37</v>
       </c>
@@ -1559,7 +1569,7 @@
       <c r="R15" s="54"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="73"/>
+      <c r="U15" s="81"/>
       <c r="V15" s="4" t="s">
         <v>25</v>
       </c>
@@ -1587,7 +1597,7 @@
       <c r="R16" s="54"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="74"/>
+      <c r="U16" s="82"/>
       <c r="V16" s="4" t="s">
         <v>26</v>
       </c>
@@ -2721,6 +2731,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2732,13 +2749,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2781,43 +2791,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="77"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="76"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -2862,42 +2872,42 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="75"/>
+      <c r="L4" s="72"/>
       <c r="M4" s="78" t="s">
         <v>43</v>
       </c>
       <c r="N4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="72" t="s">
         <v>62</v>
       </c>
       <c r="S4" s="88" t="s">
@@ -2905,15 +2915,15 @@
       </c>
       <c r="T4" s="29"/>
       <c r="U4" s="29"/>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="W4" s="75" t="s">
+      <c r="W4" s="72" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -2938,7 +2948,7 @@
       <c r="I5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="5" t="s">
         <v>13</v>
       </c>
@@ -2947,15 +2957,15 @@
       </c>
       <c r="M5" s="79"/>
       <c r="N5" s="79"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
       <c r="S5" s="89"/>
       <c r="T5" s="29"/>
       <c r="U5" s="29"/>
-      <c r="V5" s="75"/>
-      <c r="W5" s="75"/>
+      <c r="V5" s="72"/>
+      <c r="W5" s="72"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -2981,7 +2991,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="29"/>
       <c r="U6" s="31"/>
-      <c r="V6" s="72" t="s">
+      <c r="V6" s="80" t="s">
         <v>19</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -3012,7 +3022,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="29"/>
       <c r="U7" s="31"/>
-      <c r="V7" s="73"/>
+      <c r="V7" s="81"/>
       <c r="W7" s="4" t="s">
         <v>36</v>
       </c>
@@ -3041,7 +3051,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="29"/>
       <c r="U8" s="31"/>
-      <c r="V8" s="73"/>
+      <c r="V8" s="81"/>
       <c r="W8" s="4" t="s">
         <v>22</v>
       </c>
@@ -3070,7 +3080,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="31"/>
       <c r="U9" s="31"/>
-      <c r="V9" s="73"/>
+      <c r="V9" s="81"/>
       <c r="W9" s="4" t="s">
         <v>60</v>
       </c>
@@ -3099,7 +3109,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="31"/>
       <c r="U10" s="31"/>
-      <c r="V10" s="73"/>
+      <c r="V10" s="81"/>
       <c r="W10" s="4" t="s">
         <v>32</v>
       </c>
@@ -3128,7 +3138,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="31"/>
       <c r="U11" s="31"/>
-      <c r="V11" s="73"/>
+      <c r="V11" s="81"/>
       <c r="W11" s="4" t="s">
         <v>31</v>
       </c>
@@ -3157,7 +3167,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="31"/>
       <c r="U12" s="31"/>
-      <c r="V12" s="72" t="s">
+      <c r="V12" s="80" t="s">
         <v>20</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -3188,7 +3198,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="31"/>
       <c r="U13" s="31"/>
-      <c r="V13" s="73"/>
+      <c r="V13" s="81"/>
       <c r="W13" s="4" t="s">
         <v>38</v>
       </c>
@@ -3217,7 +3227,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="31"/>
       <c r="U14" s="31"/>
-      <c r="V14" s="73"/>
+      <c r="V14" s="81"/>
       <c r="W14" s="4" t="s">
         <v>37</v>
       </c>
@@ -3246,7 +3256,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="31"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="73"/>
+      <c r="V15" s="81"/>
       <c r="W15" s="4" t="s">
         <v>25</v>
       </c>
@@ -3275,7 +3285,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="31"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="74"/>
+      <c r="V16" s="82"/>
       <c r="W16" s="4" t="s">
         <v>26</v>
       </c>
@@ -5856,6 +5866,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -5866,16 +5886,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_BuiManhDung.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_BuiManhDung.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang1\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang1\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="23" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="79">
   <si>
     <t>STT</t>
   </si>
@@ -699,9 +699,24 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -721,21 +736,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1059,8 +1059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView showZeros="0" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1091,42 +1091,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
     </row>
     <row r="2" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="76" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="76"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="64"/>
@@ -1169,57 +1169,57 @@
       <c r="V3" s="30"/>
     </row>
     <row r="4" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="78" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="83" t="s">
+      <c r="P4" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="77" t="s">
         <v>63</v>
       </c>
       <c r="T4" s="29"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="76" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
@@ -1244,23 +1244,23 @@
       <c r="I5" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="62" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="84"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="77"/>
       <c r="T5" s="29"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
     </row>
     <row r="6" spans="1:22" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1313,7 +1313,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="61"/>
-      <c r="U6" s="80" t="s">
+      <c r="U6" s="72" t="s">
         <v>19</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1343,7 +1343,7 @@
       <c r="R7" s="54"/>
       <c r="S7" s="4"/>
       <c r="T7" s="61"/>
-      <c r="U7" s="81"/>
+      <c r="U7" s="73"/>
       <c r="V7" s="4" t="s">
         <v>36</v>
       </c>
@@ -1371,7 +1371,7 @@
       <c r="R8" s="54"/>
       <c r="S8" s="4"/>
       <c r="T8" s="61"/>
-      <c r="U8" s="81"/>
+      <c r="U8" s="73"/>
       <c r="V8" s="4" t="s">
         <v>22</v>
       </c>
@@ -1399,7 +1399,7 @@
       <c r="R9" s="54"/>
       <c r="S9" s="4"/>
       <c r="T9" s="61"/>
-      <c r="U9" s="81"/>
+      <c r="U9" s="73"/>
       <c r="V9" s="4" t="s">
         <v>60</v>
       </c>
@@ -1427,7 +1427,7 @@
       <c r="R10" s="54"/>
       <c r="S10" s="4"/>
       <c r="T10" s="61"/>
-      <c r="U10" s="81"/>
+      <c r="U10" s="73"/>
       <c r="V10" s="4" t="s">
         <v>32</v>
       </c>
@@ -1455,7 +1455,7 @@
       <c r="R11" s="54"/>
       <c r="S11" s="4"/>
       <c r="T11" s="61"/>
-      <c r="U11" s="81"/>
+      <c r="U11" s="73"/>
       <c r="V11" s="4" t="s">
         <v>31</v>
       </c>
@@ -1483,7 +1483,7 @@
       <c r="R12" s="54"/>
       <c r="S12" s="4"/>
       <c r="T12" s="61"/>
-      <c r="U12" s="80" t="s">
+      <c r="U12" s="72" t="s">
         <v>20</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1513,7 +1513,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="61"/>
-      <c r="U13" s="81"/>
+      <c r="U13" s="73"/>
       <c r="V13" s="4" t="s">
         <v>38</v>
       </c>
@@ -1541,7 +1541,7 @@
       <c r="R14" s="54"/>
       <c r="S14" s="4"/>
       <c r="T14" s="61"/>
-      <c r="U14" s="81"/>
+      <c r="U14" s="73"/>
       <c r="V14" s="4" t="s">
         <v>37</v>
       </c>
@@ -1569,7 +1569,7 @@
       <c r="R15" s="54"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="81"/>
+      <c r="U15" s="73"/>
       <c r="V15" s="4" t="s">
         <v>25</v>
       </c>
@@ -1597,7 +1597,7 @@
       <c r="R16" s="54"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="82"/>
+      <c r="U16" s="74"/>
       <c r="V16" s="4" t="s">
         <v>26</v>
       </c>
@@ -2731,13 +2731,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2749,6 +2742,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2759,8 +2759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2791,43 +2791,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
+      <c r="W1" s="78"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="76" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="76"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -2872,42 +2872,42 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="78" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="83" t="s">
+      <c r="P4" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="76" t="s">
         <v>62</v>
       </c>
       <c r="S4" s="88" t="s">
@@ -2915,15 +2915,15 @@
       </c>
       <c r="T4" s="29"/>
       <c r="U4" s="29"/>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="W4" s="72" t="s">
+      <c r="W4" s="76" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -2948,50 +2948,78 @@
       <c r="I5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
       <c r="S5" s="89"/>
       <c r="T5" s="29"/>
       <c r="U5" s="29"/>
-      <c r="V5" s="72"/>
-      <c r="W5" s="72"/>
+      <c r="V5" s="76"/>
+      <c r="W5" s="76"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
+      <c r="B6" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="55">
+        <v>868183033815544</v>
+      </c>
+      <c r="F6" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="54" t="s">
+        <v>68</v>
+      </c>
       <c r="H6" s="54"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
+      <c r="I6" s="67" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" s="56" t="s">
+        <v>72</v>
+      </c>
       <c r="K6" s="59"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="58"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="54"/>
+      <c r="L6" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="P6" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R6" s="54" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="29"/>
       <c r="U6" s="31"/>
-      <c r="V6" s="80" t="s">
+      <c r="V6" s="72" t="s">
         <v>19</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -3022,7 +3050,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="29"/>
       <c r="U7" s="31"/>
-      <c r="V7" s="81"/>
+      <c r="V7" s="73"/>
       <c r="W7" s="4" t="s">
         <v>36</v>
       </c>
@@ -3051,7 +3079,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="29"/>
       <c r="U8" s="31"/>
-      <c r="V8" s="81"/>
+      <c r="V8" s="73"/>
       <c r="W8" s="4" t="s">
         <v>22</v>
       </c>
@@ -3080,7 +3108,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="31"/>
       <c r="U9" s="31"/>
-      <c r="V9" s="81"/>
+      <c r="V9" s="73"/>
       <c r="W9" s="4" t="s">
         <v>60</v>
       </c>
@@ -3109,7 +3137,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="31"/>
       <c r="U10" s="31"/>
-      <c r="V10" s="81"/>
+      <c r="V10" s="73"/>
       <c r="W10" s="4" t="s">
         <v>32</v>
       </c>
@@ -3138,7 +3166,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="31"/>
       <c r="U11" s="31"/>
-      <c r="V11" s="81"/>
+      <c r="V11" s="73"/>
       <c r="W11" s="4" t="s">
         <v>31</v>
       </c>
@@ -3167,7 +3195,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="31"/>
       <c r="U12" s="31"/>
-      <c r="V12" s="80" t="s">
+      <c r="V12" s="72" t="s">
         <v>20</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -3198,7 +3226,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="31"/>
       <c r="U13" s="31"/>
-      <c r="V13" s="81"/>
+      <c r="V13" s="73"/>
       <c r="W13" s="4" t="s">
         <v>38</v>
       </c>
@@ -3227,7 +3255,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="31"/>
       <c r="U14" s="31"/>
-      <c r="V14" s="81"/>
+      <c r="V14" s="73"/>
       <c r="W14" s="4" t="s">
         <v>37</v>
       </c>
@@ -3256,7 +3284,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="31"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="81"/>
+      <c r="V15" s="73"/>
       <c r="W15" s="4" t="s">
         <v>25</v>
       </c>
@@ -3285,7 +3313,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="31"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="82"/>
+      <c r="V16" s="74"/>
       <c r="W16" s="4" t="s">
         <v>26</v>
       </c>
@@ -3404,7 +3432,7 @@
       </c>
       <c r="W20" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3777,7 +3805,7 @@
       </c>
       <c r="W32" s="11">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3937,7 +3965,7 @@
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4268,7 +4296,7 @@
       </c>
       <c r="W48" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102V")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5866,6 +5894,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -5876,16 +5914,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
